--- a/aviation/data/countryIncomePop.xlsx
+++ b/aviation/data/countryIncomePop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsun/git/internet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsun/git/internet/aviation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B386AF-19E8-F047-98DE-EC85F276F19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65037EE0-AACC-1749-BF92-606042EBC59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="10600" windowHeight="16540" xr2:uid="{23567283-A119-FA4E-9FB8-2AF6D2627CBD}"/>
   </bookViews>
@@ -407,9 +407,6 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
     <t>Republic of Moldova</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
@@ -537,6 +531,12 @@
   </si>
   <si>
     <t>Pop Density Per Km</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD5A3E1-D045-184E-A606-04D7CA9B3CBE}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="C6:J6"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2292,7 +2292,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B124">
         <v>24027.916045187405</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4">
         <v>1702.0039999999999</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>2651.7</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>8431.9309017646519</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>8519.4104713214801</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>597.52774747210754</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>7711.4300679272201</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>6635.5783614651127</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>738.90024627878836</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>16851.914091740673</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>1159.1991850208772</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>4543.9751088031126</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>11667.027363668187</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>407.60560214168896</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>47165.787508515386</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>13785.474298778119</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>18407.238386923509</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>547.32000000000005</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>4941.6275486163604</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>23216.408258569118</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>3659.8037022561648</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>2240.7235800682101</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>2494.0202529128865</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>45159.058705965319</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>64306.962196286491</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="4">
         <v>14273.59</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>957.1</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" s="4">
         <v>3322.8130000000001</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>511.7193590619168</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>12658.189622598389</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>2641.8477156767999</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>8651.9859280639484</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>427.88468299666215</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>2333.03008705105</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>37374.460621026024</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>34170.562513844809</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>51484.941242542001</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>14185.30592374606</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>1373.0146079020706</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>1948.6208531662783</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>1060.4948872744969</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>1129.3933749172645</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>1142.94041780676</v>
